--- a/ex_pic/4/일반국민_가치/4_일반국민_가치7_비율.xlsx
+++ b/ex_pic/4/일반국민_가치/4_일반국민_가치7_비율.xlsx
@@ -1,43 +1,231 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+  <si>
+    <t>1.매우 가치가 낮다</t>
+  </si>
+  <si>
+    <t>2.다소 가치가 낮다</t>
+  </si>
+  <si>
+    <t>3.보통이다</t>
+  </si>
+  <si>
+    <t>4.다소 가치가 높다</t>
+  </si>
+  <si>
+    <t>5.매우 가치가 높다</t>
+  </si>
+  <si>
+    <t>부정(1+2)</t>
+  </si>
+  <si>
+    <t>보통(3)</t>
+  </si>
+  <si>
+    <t>긍정(4+5)</t>
+  </si>
+  <si>
+    <t>성별</t>
+  </si>
+  <si>
+    <t>연령</t>
+  </si>
+  <si>
+    <t>학력</t>
+  </si>
+  <si>
+    <t>거주지역</t>
+  </si>
+  <si>
+    <t>직업</t>
+  </si>
+  <si>
+    <t>남성</t>
+  </si>
+  <si>
+    <t>여성</t>
+  </si>
+  <si>
+    <t>10대(15세이상)</t>
+  </si>
+  <si>
+    <t>20대</t>
+  </si>
+  <si>
+    <t>30대</t>
+  </si>
+  <si>
+    <t>40대</t>
+  </si>
+  <si>
+    <t>50대</t>
+  </si>
+  <si>
+    <t>60대이상</t>
+  </si>
+  <si>
+    <t>초등학교 졸업(무학 포함)</t>
+  </si>
+  <si>
+    <t>중학교 재학</t>
+  </si>
+  <si>
+    <t>중학교 졸업</t>
+  </si>
+  <si>
+    <t>고등학교 재학</t>
+  </si>
+  <si>
+    <t>고등학교 졸업</t>
+  </si>
+  <si>
+    <t>대학교 재학</t>
+  </si>
+  <si>
+    <t>대학교 졸업</t>
+  </si>
+  <si>
+    <t>대학원 재학(석사 또는 박사)</t>
+  </si>
+  <si>
+    <t>대학원 졸업(석사또는 박사)</t>
+  </si>
+  <si>
+    <t>서울</t>
+  </si>
+  <si>
+    <t>부산</t>
+  </si>
+  <si>
+    <t>대구</t>
+  </si>
+  <si>
+    <t>인천</t>
+  </si>
+  <si>
+    <t>광주</t>
+  </si>
+  <si>
+    <t>대전</t>
+  </si>
+  <si>
+    <t>울산</t>
+  </si>
+  <si>
+    <t>세종</t>
+  </si>
+  <si>
+    <t>경기</t>
+  </si>
+  <si>
+    <t>강원</t>
+  </si>
+  <si>
+    <t>충북</t>
+  </si>
+  <si>
+    <t>충남</t>
+  </si>
+  <si>
+    <t>전북</t>
+  </si>
+  <si>
+    <t>전남</t>
+  </si>
+  <si>
+    <t>경북</t>
+  </si>
+  <si>
+    <t>경남</t>
+  </si>
+  <si>
+    <t>제주</t>
+  </si>
+  <si>
+    <t>산림임업종사자</t>
+  </si>
+  <si>
+    <t>사무종사자</t>
+  </si>
+  <si>
+    <t>서비스종사자</t>
+  </si>
+  <si>
+    <t>판매종사자</t>
+  </si>
+  <si>
+    <t>기술기능종사자</t>
+  </si>
+  <si>
+    <t>단순노무종사자</t>
+  </si>
+  <si>
+    <t>전문가(교수 포함)</t>
+  </si>
+  <si>
+    <t>경영직종사자</t>
+  </si>
+  <si>
+    <t>자영업자(개인사업자)</t>
+  </si>
+  <si>
+    <t>공무원(교사포함)</t>
+  </si>
+  <si>
+    <t>학생(대학원생포함)</t>
+  </si>
+  <si>
+    <t>전업주부</t>
+  </si>
+  <si>
+    <t>기타</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -46,30 +234,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -77,83 +253,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -441,1593 +550,1467 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>1.매우 가치가 낮다</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>2.다소 가치가 낮다</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>3.보통이다</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>4.다소 가치가 높다</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>5.매우 가치가 높다</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>부정(1+2)</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>보통(3)</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>긍정(4+5)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>성별</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>남성</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+    <row r="1" spans="1:10">
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2">
         <v>1.6</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>10.1</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>35.7</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>41.3</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>11.3</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>11.7</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>35.7</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>52.59999999999999</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n"/>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>여성</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+    <row r="3" spans="1:10">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
         <v>1.1</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>7.1</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>39.2</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>41.6</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>11.1</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>8.199999999999999</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>39.2</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>52.7</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>연령</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>10대(15세이상)</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
+    <row r="4" spans="1:10">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
         <v>8.800000000000001</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>31.6</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>43.9</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>15.8</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>8.800000000000001</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>31.6</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>59.7</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n"/>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>20대</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+    <row r="5" spans="1:10">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5">
         <v>1.6</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>10.1</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>40.9</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>37.1</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>10.4</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>11.7</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>40.9</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>47.5</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n"/>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>30대</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+    <row r="6" spans="1:10">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6">
         <v>1.8</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>10.9</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>39.1</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>38</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>10.2</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>12.7</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>39.1</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>48.2</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>40대</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+    <row r="7" spans="1:10">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>10</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>36.4</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>38.1</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>13.5</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>12</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>36.4</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>51.6</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n"/>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>50대</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
+    <row r="8" spans="1:10">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8">
         <v>1.1</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>7.6</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>36.8</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>45.7</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>8.9</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>8.699999999999999</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>36.8</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>54.6</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n"/>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>60대이상</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
+    <row r="9" spans="1:10">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9">
         <v>0.6</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>4.7</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>35.4</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>46.9</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>12.4</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>5.3</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>35.4</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9">
         <v>59.3</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>학력</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>초등학교 졸업(무학 포함)</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
+    <row r="10" spans="1:10">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
         <v>50</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>33.3</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>16.7</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
         <v>50</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10">
         <v>50</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n"/>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>중학교 재학</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
+    <row r="11" spans="1:10">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
         <v>28.6</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>42.9</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>28.6</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
         <v>28.6</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11">
         <v>71.5</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n"/>
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>중학교 졸업</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
+    <row r="12" spans="1:10">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
         <v>7.7</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>61.5</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>23.1</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>7.7</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
         <v>7.7</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12">
         <v>61.5</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J12">
         <v>30.8</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="1" t="inlineStr">
-        <is>
-          <t>고등학교 재학</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
+    <row r="13" spans="1:10">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
         <v>10.3</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>31</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>41.4</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>17.2</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
         <v>10.3</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13">
         <v>31</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J13">
         <v>58.59999999999999</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n"/>
-      <c r="B14" s="1" t="inlineStr">
-        <is>
-          <t>고등학교 졸업</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
+    <row r="14" spans="1:10">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14">
         <v>2.1</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>8.300000000000001</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>39.5</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>38.7</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>11.5</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
         <v>10.4</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I14">
         <v>39.5</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J14">
         <v>50.2</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="1" t="inlineStr">
-        <is>
-          <t>대학교 재학</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
+    <row r="15" spans="1:10">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
         <v>9.5</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>44</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>35.7</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>10.7</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
         <v>9.5</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I15">
         <v>44</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J15">
         <v>46.40000000000001</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n"/>
-      <c r="B16" s="1" t="inlineStr">
-        <is>
-          <t>대학교 졸업</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
+    <row r="16" spans="1:10">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16">
         <v>1.2</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>8.6</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>36.1</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>44</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>10.1</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16">
         <v>9.799999999999999</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I16">
         <v>36.1</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J16">
         <v>54.1</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n"/>
-      <c r="B17" s="1" t="inlineStr">
-        <is>
-          <t>대학원 재학(석사 또는 박사)</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
+    <row r="17" spans="1:10">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17">
         <v>4.8</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>14.3</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>23.8</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>28.6</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>28.6</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17">
         <v>19.1</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I17">
         <v>23.8</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J17">
         <v>57.2</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n"/>
-      <c r="B18" s="1" t="inlineStr">
-        <is>
-          <t>대학원 졸업(석사또는 박사)</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
+    <row r="18" spans="1:10">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18">
         <v>1.7</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>8.6</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>36.2</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>37.9</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>15.5</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18">
         <v>10.3</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I18">
         <v>36.2</v>
       </c>
-      <c r="J18" t="n">
+      <c r="J18">
         <v>53.4</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>거주지역</t>
-        </is>
-      </c>
-      <c r="B19" s="1" t="inlineStr">
-        <is>
-          <t>서울</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
+    <row r="19" spans="1:10">
+      <c r="A19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19">
         <v>2.8</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>7.2</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>42.4</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>36.4</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>11.2</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19">
         <v>10</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I19">
         <v>42.4</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J19">
         <v>47.59999999999999</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n"/>
-      <c r="B20" s="1" t="inlineStr">
-        <is>
-          <t>부산</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
+    <row r="20" spans="1:10">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20">
         <v>1.8</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>10.1</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>34.9</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>42.2</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>11</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20">
         <v>11.9</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I20">
         <v>34.9</v>
       </c>
-      <c r="J20" t="n">
+      <c r="J20">
         <v>53.2</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="1" t="inlineStr">
-        <is>
-          <t>대구</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="n">
+    <row r="21" spans="1:10">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
         <v>9</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>42.3</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>37.2</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>11.5</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21">
         <v>9</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I21">
         <v>42.3</v>
       </c>
-      <c r="J21" t="n">
+      <c r="J21">
         <v>48.7</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="n"/>
-      <c r="B22" s="1" t="inlineStr">
-        <is>
-          <t>인천</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
+    <row r="22" spans="1:10">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22">
         <v>2</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>9</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>34</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>42</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>13</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22">
         <v>11</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I22">
         <v>34</v>
       </c>
-      <c r="J22" t="n">
+      <c r="J22">
         <v>55</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="1" t="inlineStr">
-        <is>
-          <t>광주</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
+    <row r="23" spans="1:10">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
         <v>4.2</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>33.3</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>50</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>12.5</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H23">
         <v>4.2</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I23">
         <v>33.3</v>
       </c>
-      <c r="J23" t="n">
+      <c r="J23">
         <v>62.5</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="n"/>
-      <c r="B24" s="1" t="inlineStr">
-        <is>
-          <t>대전</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
+    <row r="24" spans="1:10">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
         <v>4.1</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>22.4</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>69.40000000000001</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>4.1</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H24">
         <v>4.1</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I24">
         <v>22.4</v>
       </c>
-      <c r="J24" t="n">
+      <c r="J24">
         <v>73.5</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="1" t="inlineStr">
-        <is>
-          <t>울산</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
+    <row r="25" spans="1:10">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
         <v>13.2</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>44.7</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>34.2</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>7.9</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H25">
         <v>13.2</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I25">
         <v>44.7</v>
       </c>
-      <c r="J25" t="n">
+      <c r="J25">
         <v>42.1</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="1" t="inlineStr">
-        <is>
-          <t>세종</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
+    <row r="26" spans="1:10">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26">
         <v>7.7</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>15.4</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>38.5</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>38.5</v>
       </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
         <v>23.1</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I26">
         <v>38.5</v>
       </c>
-      <c r="J26" t="n">
+      <c r="J26">
         <v>38.5</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="1" t="inlineStr">
-        <is>
-          <t>경기</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
+    <row r="27" spans="1:10">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27">
         <v>0.7</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>9.9</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>36.8</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>39.7</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>12.9</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H27">
         <v>10.6</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I27">
         <v>36.8</v>
       </c>
-      <c r="J27" t="n">
+      <c r="J27">
         <v>52.6</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="n"/>
-      <c r="B28" s="1" t="inlineStr">
-        <is>
-          <t>강원</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" t="n">
+    <row r="28" spans="1:10">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
         <v>10.2</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>34.7</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>40.8</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>14.3</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H28">
         <v>10.2</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I28">
         <v>34.7</v>
       </c>
-      <c r="J28" t="n">
+      <c r="J28">
         <v>55.09999999999999</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="n"/>
-      <c r="B29" s="1" t="inlineStr">
-        <is>
-          <t>충북</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
+    <row r="29" spans="1:10">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
         <v>9.6</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>30.8</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>57.7</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>1.9</v>
       </c>
-      <c r="H29" t="n">
+      <c r="H29">
         <v>9.6</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I29">
         <v>30.8</v>
       </c>
-      <c r="J29" t="n">
+      <c r="J29">
         <v>59.6</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="n"/>
-      <c r="B30" s="1" t="inlineStr">
-        <is>
-          <t>충남</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
+    <row r="30" spans="1:10">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30">
         <v>1.5</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>7.4</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>38.2</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>39.7</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>13.2</v>
       </c>
-      <c r="H30" t="n">
+      <c r="H30">
         <v>8.9</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I30">
         <v>38.2</v>
       </c>
-      <c r="J30" t="n">
+      <c r="J30">
         <v>52.90000000000001</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="n"/>
-      <c r="B31" s="1" t="inlineStr">
-        <is>
-          <t>전북</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
+    <row r="31" spans="1:10">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31">
         <v>1.8</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>12.5</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>37.5</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>42.9</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>5.4</v>
       </c>
-      <c r="H31" t="n">
+      <c r="H31">
         <v>14.3</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I31">
         <v>37.5</v>
       </c>
-      <c r="J31" t="n">
+      <c r="J31">
         <v>48.3</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="n"/>
-      <c r="B32" s="1" t="inlineStr">
-        <is>
-          <t>전남</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
+    <row r="32" spans="1:10">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32">
         <v>1.9</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>7.4</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>35.2</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>46.3</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>9.300000000000001</v>
       </c>
-      <c r="H32" t="n">
+      <c r="H32">
         <v>9.300000000000001</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I32">
         <v>35.2</v>
       </c>
-      <c r="J32" t="n">
+      <c r="J32">
         <v>55.59999999999999</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="n"/>
-      <c r="B33" s="1" t="inlineStr">
-        <is>
-          <t>경북</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
+    <row r="33" spans="1:10">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33">
         <v>1.2</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>2.4</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>36.6</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>46.3</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>13.4</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H33">
         <v>3.6</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I33">
         <v>36.6</v>
       </c>
-      <c r="J33" t="n">
+      <c r="J33">
         <v>59.7</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="n"/>
-      <c r="B34" s="1" t="inlineStr">
-        <is>
-          <t>경남</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
+    <row r="34" spans="1:10">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34">
         <v>1.9</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>11.4</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>40</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>35.2</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>11.4</v>
       </c>
-      <c r="H34" t="n">
+      <c r="H34">
         <v>13.3</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I34">
         <v>40</v>
       </c>
-      <c r="J34" t="n">
+      <c r="J34">
         <v>46.6</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="n"/>
-      <c r="B35" s="1" t="inlineStr">
-        <is>
-          <t>제주</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
+    <row r="35" spans="1:10">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
         <v>31.8</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>54.5</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>13.6</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
         <v>31.8</v>
       </c>
-      <c r="J35" t="n">
+      <c r="J35">
         <v>68.09999999999999</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="inlineStr">
-        <is>
-          <t>직업</t>
-        </is>
-      </c>
-      <c r="B36" s="1" t="inlineStr">
-        <is>
-          <t>산림임업종사자</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>0</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" t="n">
+    <row r="36" spans="1:10">
+      <c r="A36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
         <v>25</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>50</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>25</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
         <v>25</v>
       </c>
-      <c r="J36" t="n">
+      <c r="J36">
         <v>75</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="n"/>
-      <c r="B37" s="1" t="inlineStr">
-        <is>
-          <t>사무종사자</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
+    <row r="37" spans="1:10">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37">
         <v>1.4</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>7.2</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>39</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>41</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>11.4</v>
       </c>
-      <c r="H37" t="n">
+      <c r="H37">
         <v>8.6</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I37">
         <v>39</v>
       </c>
-      <c r="J37" t="n">
+      <c r="J37">
         <v>52.4</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="n"/>
-      <c r="B38" s="1" t="inlineStr">
-        <is>
-          <t>서비스종사자</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
+    <row r="38" spans="1:10">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38">
         <v>2.4</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>6.3</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>38.1</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>41.3</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>11.9</v>
       </c>
-      <c r="H38" t="n">
+      <c r="H38">
         <v>8.699999999999999</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I38">
         <v>38.1</v>
       </c>
-      <c r="J38" t="n">
+      <c r="J38">
         <v>53.2</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1" t="n"/>
-      <c r="B39" s="1" t="inlineStr">
-        <is>
-          <t>판매종사자</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
+    <row r="39" spans="1:10">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39">
         <v>1.9</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>5.6</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>40.7</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>46.3</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>5.6</v>
       </c>
-      <c r="H39" t="n">
+      <c r="H39">
         <v>7.5</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I39">
         <v>40.7</v>
       </c>
-      <c r="J39" t="n">
+      <c r="J39">
         <v>51.9</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1" t="n"/>
-      <c r="B40" s="1" t="inlineStr">
-        <is>
-          <t>기술기능종사자</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
+    <row r="40" spans="1:10">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40">
         <v>2.1</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>12.5</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>37.5</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40">
         <v>37.5</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40">
         <v>10.4</v>
       </c>
-      <c r="H40" t="n">
+      <c r="H40">
         <v>14.6</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I40">
         <v>37.5</v>
       </c>
-      <c r="J40" t="n">
+      <c r="J40">
         <v>47.9</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1" t="n"/>
-      <c r="B41" s="1" t="inlineStr">
-        <is>
-          <t>단순노무종사자</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" t="n">
+    <row r="41" spans="1:10">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
         <v>7.2</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
         <v>37.7</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>42</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>13</v>
       </c>
-      <c r="H41" t="n">
+      <c r="H41">
         <v>7.2</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I41">
         <v>37.7</v>
       </c>
-      <c r="J41" t="n">
+      <c r="J41">
         <v>55</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1" t="n"/>
-      <c r="B42" s="1" t="inlineStr">
-        <is>
-          <t>전문가(교수 포함)</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
+    <row r="42" spans="1:10">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42">
         <v>1.9</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>7.5</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
         <v>32.1</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>45.3</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42">
         <v>13.2</v>
       </c>
-      <c r="H42" t="n">
+      <c r="H42">
         <v>9.4</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I42">
         <v>32.1</v>
       </c>
-      <c r="J42" t="n">
+      <c r="J42">
         <v>58.5</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1" t="n"/>
-      <c r="B43" s="1" t="inlineStr">
-        <is>
-          <t>경영직종사자</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>0</v>
-      </c>
-      <c r="D43" t="n">
+    <row r="43" spans="1:10">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
         <v>13.5</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
         <v>35.1</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>43.2</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43">
         <v>8.1</v>
       </c>
-      <c r="H43" t="n">
+      <c r="H43">
         <v>13.5</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I43">
         <v>35.1</v>
       </c>
-      <c r="J43" t="n">
+      <c r="J43">
         <v>51.3</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1" t="n"/>
-      <c r="B44" s="1" t="inlineStr">
-        <is>
-          <t>자영업자(개인사업자)</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" t="n">
+    <row r="44" spans="1:10">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
         <v>11.1</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
         <v>33.3</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>42.7</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44">
         <v>12.8</v>
       </c>
-      <c r="H44" t="n">
+      <c r="H44">
         <v>11.1</v>
       </c>
-      <c r="I44" t="n">
+      <c r="I44">
         <v>33.3</v>
       </c>
-      <c r="J44" t="n">
+      <c r="J44">
         <v>55.5</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1" t="n"/>
-      <c r="B45" s="1" t="inlineStr">
-        <is>
-          <t>공무원(교사포함)</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
+    <row r="45" spans="1:10">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45">
         <v>1.4</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>10.8</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
         <v>40.5</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>39.2</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45">
         <v>8.1</v>
       </c>
-      <c r="H45" t="n">
+      <c r="H45">
         <v>12.2</v>
       </c>
-      <c r="I45" t="n">
+      <c r="I45">
         <v>40.5</v>
       </c>
-      <c r="J45" t="n">
+      <c r="J45">
         <v>47.3</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="1" t="n"/>
-      <c r="B46" s="1" t="inlineStr">
-        <is>
-          <t>학생(대학원생포함)</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>0</v>
-      </c>
-      <c r="D46" t="n">
+    <row r="46" spans="1:10">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
         <v>9.4</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
         <v>38.3</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46">
         <v>36.7</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G46">
         <v>15.6</v>
       </c>
-      <c r="H46" t="n">
+      <c r="H46">
         <v>9.4</v>
       </c>
-      <c r="I46" t="n">
+      <c r="I46">
         <v>38.3</v>
       </c>
-      <c r="J46" t="n">
+      <c r="J46">
         <v>52.3</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="1" t="n"/>
-      <c r="B47" s="1" t="inlineStr">
-        <is>
-          <t>전업주부</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
+    <row r="47" spans="1:10">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47">
         <v>0.4</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>8.5</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
         <v>35.1</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47">
         <v>45.2</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G47">
         <v>10.8</v>
       </c>
-      <c r="H47" t="n">
+      <c r="H47">
         <v>8.9</v>
       </c>
-      <c r="I47" t="n">
+      <c r="I47">
         <v>35.1</v>
       </c>
-      <c r="J47" t="n">
+      <c r="J47">
         <v>56</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="1" t="n"/>
-      <c r="B48" s="1" t="inlineStr">
-        <is>
-          <t>기타</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
+    <row r="48" spans="1:10">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C48">
         <v>4.5</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>9</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
         <v>37.6</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48">
         <v>39.8</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G48">
         <v>9</v>
       </c>
-      <c r="H48" t="n">
+      <c r="H48">
         <v>13.5</v>
       </c>
-      <c r="I48" t="n">
+      <c r="I48">
         <v>37.6</v>
       </c>
-      <c r="J48" t="n">
+      <c r="J48">
         <v>48.8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A9"/>
     <mergeCell ref="A10:A18"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="A2:A3"/>
     <mergeCell ref="A19:A35"/>
     <mergeCell ref="A36:A48"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>